--- a/example_data/EMA/label_corrected/constella-epar-product-information_en.xlsx
+++ b/example_data/EMA/label_corrected/constella-epar-product-information_en.xlsx
@@ -771,7 +771,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>renal || hepatic</t>
+          <t>hepatic || renal</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>populations - adolescent || populations - pediatric || warnings</t>
+          <t>populations - adolescent || warnings || populations - pediatric</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>populations - adult || populations - geriatric</t>
+          <t>populations - geriatric || populations - adult</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
